--- a/ISAD/03 - Work plan.xlsx
+++ b/ISAD/03 - Work plan.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kmitlthailand.sharepoint.com/sites/ProjectFountain926/Shared Documents/panda-report/ISAD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kumamon/KMITL/Project Panda - Documents/panda-report/ISAD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_046D7EC2F8FF96B187FB09BC5018844F176281C0" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{21F48AA5-DA4F-47F9-B90B-117D5C141BD1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE63C7F-E2DF-5540-B68F-E486C1A36DB6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="17565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="440" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Table" sheetId="1" r:id="rId1"/>
     <sheet name="Gannt Chart" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Task Table'!$A:$I</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Task Table'!$A$1:$H$46,'Task Table'!$I:$I</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Task Table'!$2:$4</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
@@ -372,6 +372,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -385,9 +388,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1983,31 +1983,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF3D85C6"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomLeft" activeCell="I1" activeCellId="1" sqref="A1:H46 I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" style="27" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="8"/>
-    <col min="11" max="16384" width="14.42578125" style="7"/>
+    <col min="1" max="1" width="4.83203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="4.83203125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="8"/>
+    <col min="11" max="16384" width="14.5" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2017,51 +2016,51 @@
       <c r="G1" s="5"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="32"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="33"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="33"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="11">
         <v>1</v>
@@ -2084,7 +2083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="16">
         <v>1.1000000000000001</v>
@@ -2109,7 +2108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="16">
         <v>1.2</v>
@@ -2134,7 +2133,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="16">
         <v>1.3</v>
@@ -2159,7 +2158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="19"/>
       <c r="C9" s="20"/>
@@ -2169,7 +2168,7 @@
       <c r="G9" s="21"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="22">
         <v>2</v>
@@ -2192,7 +2191,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="16">
         <v>2.1</v>
@@ -2217,7 +2216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="16">
         <v>2.2000000000000002</v>
@@ -2242,7 +2241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="16">
         <v>2.2999999999999998</v>
@@ -2267,7 +2266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="16">
         <v>2.4</v>
@@ -2292,7 +2291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
@@ -2302,7 +2301,7 @@
       <c r="G15" s="21"/>
       <c r="H15" s="24"/>
     </row>
-    <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="19">
         <v>3</v>
@@ -2325,7 +2324,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="16">
         <v>3.1</v>
@@ -2350,7 +2349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="16">
         <v>3.2</v>
@@ -2375,7 +2374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="16">
         <v>3.3</v>
@@ -2400,7 +2399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="16">
         <v>3.4</v>
@@ -2425,7 +2424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="16">
         <v>3.5</v>
@@ -2450,7 +2449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="19"/>
       <c r="C22" s="20"/>
@@ -2460,7 +2459,7 @@
       <c r="G22" s="21"/>
       <c r="H22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="19">
         <v>4</v>
@@ -2483,7 +2482,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="16">
         <v>4.0999999999999996</v>
@@ -2508,7 +2507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="16">
         <v>4.2</v>
@@ -2533,7 +2532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="16">
         <v>4.3</v>
@@ -2558,7 +2557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="16">
         <v>4.4000000000000004</v>
@@ -2586,7 +2585,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="19"/>
       <c r="C28" s="20"/>
@@ -2596,7 +2595,7 @@
       <c r="G28" s="21"/>
       <c r="H28" s="24"/>
     </row>
-    <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="19">
         <v>5</v>
@@ -2619,7 +2618,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="16">
         <v>5.0999999999999996</v>
@@ -2644,7 +2643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="16">
         <v>5.2</v>
@@ -2669,7 +2668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="16">
         <v>5.3</v>
@@ -2694,7 +2693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="16">
         <v>5.4</v>
@@ -2719,7 +2718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="19"/>
       <c r="C34" s="20"/>
@@ -2729,7 +2728,7 @@
       <c r="G34" s="25"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="19">
         <v>6</v>
@@ -2752,7 +2751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="16">
         <v>6.1</v>
@@ -2777,7 +2776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="16">
         <v>6.2</v>
@@ -2802,7 +2801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="16">
         <v>6.3</v>
@@ -2827,60 +2826,60 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="30">
         <v>1</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="31" t="s">
         <v>46</v>
       </c>
       <c r="D41" s="28">
         <v>59070009</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="30">
         <v>2</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="31" t="s">
         <v>47</v>
       </c>
       <c r="D42" s="28">
         <v>59070022</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="30">
         <v>3</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="31" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="28">
         <v>59070043</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="30">
         <v>4</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="31" t="s">
         <v>49</v>
       </c>
       <c r="D44" s="28">
         <v>59070087</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="30">
         <v>5</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="31" t="s">
         <v>50</v>
       </c>
       <c r="D45" s="28">
@@ -2898,7 +2897,7 @@
     <mergeCell ref="D2:D4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2909,6 +2908,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F05C1EF0044CF249A09568BFC7A27DEF" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a308155717e7f8eadebf0d848e17ba4f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="360d23a6-f195-4c5c-b5bb-19aa4319b9ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b1d6afd8dd879a1d7a61ed4bc2f66470" ns2:_="">
     <xsd:import namespace="360d23a6-f195-4c5c-b5bb-19aa4319b9ef"/>
@@ -3060,15 +3068,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84BAB9AF-D7E3-4935-902D-F19D2D3AE227}">
   <ds:schemaRefs>
@@ -3086,6 +3085,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FB229F0-8222-4E0E-98F5-97B5EFBD90CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2627D2E6-4B24-4613-8E49-3AC75E278B25}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3101,12 +3108,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FB229F0-8222-4E0E-98F5-97B5EFBD90CC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ISAD/03 - Work plan.xlsx
+++ b/ISAD/03 - Work plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19321"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kumamon/KMITL/Project Panda - Documents/panda-report/ISAD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE63C7F-E2DF-5540-B68F-E486C1A36DB6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{5CE63C7F-E2DF-5540-B68F-E486C1A36DB6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{3552006D-B1AD-4408-8976-A0D71034C90B}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="440" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,152 +17,155 @@
     <sheet name="Gannt Chart" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Task Table'!$A$1:$H$46,'Task Table'!$I:$I</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Task Table'!$2:$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Task Table'!$A$2:$H$47,'Task Table'!$I:$I</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Task Table'!$3:$5</definedName>
   </definedNames>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179016" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+  <si>
+    <t>Work Plan</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Task Name</t>
+  </si>
+  <si>
+    <t>Predecessor</t>
+  </si>
+  <si>
+    <t>Assignee</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>Duration (Days)</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Write system request</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2, 3</t>
+  </si>
   <si>
     <t>Collect system requirements</t>
   </si>
   <si>
-    <t>Write system request</t>
-  </si>
-  <si>
-    <t>Planning</t>
+    <t>Create work plan</t>
+  </si>
+  <si>
+    <t>1, 2</t>
   </si>
   <si>
     <t>Analysis</t>
   </si>
   <si>
+    <t>Write use case diagram</t>
+  </si>
+  <si>
+    <t>1, 2, 5</t>
+  </si>
+  <si>
+    <t>Write activity diagram</t>
+  </si>
+  <si>
+    <t>2, 3, 4</t>
+  </si>
+  <si>
+    <t>Write data flow diagram</t>
+  </si>
+  <si>
+    <t>Write ER diagram</t>
+  </si>
+  <si>
+    <t>1, 4, 5</t>
+  </si>
+  <si>
+    <t>Plan Website Interface</t>
+  </si>
+  <si>
+    <t>Plan view space function</t>
+  </si>
+  <si>
+    <t>Plan reservation and approval function</t>
+  </si>
+  <si>
+    <t>Plan space management function</t>
+  </si>
+  <si>
+    <t>Plan user roles and permission function</t>
+  </si>
+  <si>
     <t>Implementation</t>
   </si>
   <si>
-    <t>Write use case diagram</t>
-  </si>
-  <si>
-    <t>Write data flow diagram</t>
-  </si>
-  <si>
-    <t>Create work plan</t>
-  </si>
-  <si>
-    <t>Write activity diagram</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>Implement view space function</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5</t>
+  </si>
+  <si>
+    <t>Implement reservation and approval function</t>
+  </si>
+  <si>
+    <t>Implement space management function</t>
+  </si>
+  <si>
+    <t>Implement user role and permission function</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Testing</t>
   </si>
   <si>
+    <t>Test view space function</t>
+  </si>
+  <si>
+    <t>Test reservation and approval function</t>
+  </si>
+  <si>
+    <t>Test space management function</t>
+  </si>
+  <si>
+    <t>Test user roles and permission function</t>
+  </si>
+  <si>
+    <t>Delivering and Documentation</t>
+  </si>
+  <si>
     <t>Write documentation</t>
   </si>
   <si>
+    <t>1, 3, 5</t>
+  </si>
+  <si>
     <t>Prepare presentation</t>
   </si>
   <si>
     <t>Write project summary</t>
   </si>
   <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Task Name</t>
-  </si>
-  <si>
-    <t>Predecessor</t>
-  </si>
-  <si>
-    <t>Assignee</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Finish</t>
-  </si>
-  <si>
-    <t>Duration (Days)</t>
+    <t>6.1, 6.2</t>
   </si>
   <si>
     <t>Assignee No.</t>
-  </si>
-  <si>
-    <t>1, 2, 3, 4, 5</t>
-  </si>
-  <si>
-    <t>1, 4, 5</t>
-  </si>
-  <si>
-    <t>2, 3</t>
-  </si>
-  <si>
-    <t>1, 2</t>
-  </si>
-  <si>
-    <t>1, 2, 5</t>
-  </si>
-  <si>
-    <t>2, 3, 4</t>
-  </si>
-  <si>
-    <t>1, 3, 5</t>
-  </si>
-  <si>
-    <t>Write ER diagram</t>
-  </si>
-  <si>
-    <t>Delivering and Documentation</t>
-  </si>
-  <si>
-    <t>6.1, 6.2</t>
-  </si>
-  <si>
-    <t>Plan view space function</t>
-  </si>
-  <si>
-    <t>Plan reservation and approval function</t>
-  </si>
-  <si>
-    <t>Plan space management function</t>
-  </si>
-  <si>
-    <t>Plan user roles and permission function</t>
-  </si>
-  <si>
-    <t>Implement view space function</t>
-  </si>
-  <si>
-    <t>Implement reservation and approval function</t>
-  </si>
-  <si>
-    <t>Implement space management function</t>
-  </si>
-  <si>
-    <t>Implement user role and permission function</t>
-  </si>
-  <si>
-    <t>Test view space function</t>
-  </si>
-  <si>
-    <t>Test reservation and approval function</t>
-  </si>
-  <si>
-    <t>Test space management function</t>
-  </si>
-  <si>
-    <t>Test user roles and permission function</t>
-  </si>
-  <si>
-    <t>Plan Website Interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Kavin Ruengprateepsang</t>
@@ -187,7 +190,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-809]dd\ mmm\ yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -220,6 +223,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF434343"/>
+      <name val="IBM Plex Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="IBM Plex Sans"/>
       <family val="2"/>
     </font>
@@ -286,25 +295,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -360,9 +354,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -374,6 +365,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -388,6 +387,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -409,7 +411,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="th-TH"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -494,7 +496,7 @@
               <c:f>'Task Table'!$F$2:$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:pt idx="1">
                   <c:v>Start</c:v>
                 </c:pt>
               </c:strCache>
@@ -513,92 +515,89 @@
               <c:f>'Task Table'!$C$5:$C$38</c:f>
               <c:strCache>
                 <c:ptCount val="34"/>
-                <c:pt idx="0">
+                <c:pt idx="1">
                   <c:v>Planning</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Write system request</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Collect system requirements</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Create work plan</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Analysis</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Write use case diagram</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Write activity diagram</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Write data flow diagram</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Write ER diagram</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>Planning</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>Plan Website Interface</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>Plan view space function</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Plan reservation and approval function</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Plan space management function</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Plan user roles and permission function</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>Implementation</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>Implement view space function</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>Implement reservation and approval function</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>Implement space management function</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>Implement user role and permission function</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>Testing</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>Test view space function</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>Test reservation and approval function</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>Test space management function</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>Test user roles and permission function</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>Delivering and Documentation</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>Write documentation</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>Prepare presentation</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Write project summary</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -609,92 +608,89 @@
               <c:numCache>
                 <c:formatCode>[$-809]dd\ mmm\ yy;@</c:formatCode>
                 <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>43110</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>43110</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>43110</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>43117</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43110</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43129</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>43129</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>43129</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>43137</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43144</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43151</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43160</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>43160</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>43166</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43176</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43186</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43196</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43168</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>43168</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>43168</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>43178</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43188</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43198</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43173</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>43173</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>43173</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>43183</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43193</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43203</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>43206</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>43208</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -713,7 +709,7 @@
               <c:f>'Task Table'!$H$2:$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:pt idx="1">
                   <c:v>Duration (Days)</c:v>
                 </c:pt>
               </c:strCache>
@@ -734,92 +730,89 @@
               <c:f>'Task Table'!$C$5:$C$38</c:f>
               <c:strCache>
                 <c:ptCount val="34"/>
-                <c:pt idx="0">
+                <c:pt idx="1">
                   <c:v>Planning</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Write system request</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Collect system requirements</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Create work plan</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Analysis</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Write use case diagram</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Write activity diagram</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Write data flow diagram</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Write ER diagram</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>Planning</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>Plan Website Interface</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>Plan view space function</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Plan reservation and approval function</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Plan space management function</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Plan user roles and permission function</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>Implementation</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>Implement view space function</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>Implement reservation and approval function</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>Implement space management function</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>Implement user role and permission function</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>Testing</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>Test view space function</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>Test reservation and approval function</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>Test space management function</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>Test user roles and permission function</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>Delivering and Documentation</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>Write documentation</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>Prepare presentation</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Write project summary</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -830,41 +823,38 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
-                <c:pt idx="0">
+                <c:pt idx="1">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -875,11 +865,11 @@
                 <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>4</c:v>
@@ -890,11 +880,11 @@
                 <c:pt idx="22">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>2</c:v>
@@ -905,17 +895,17 @@
                 <c:pt idx="28">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>6</c:v>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1058,6 +1048,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1065,7 +1056,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1092,6 +1082,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1644,7 +1639,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="140" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="140" workbookViewId="0" zoomToFit="1" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1984,917 +1979,1002 @@
   <sheetPr>
     <tabColor rgb="FF3D85C6"/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:H2"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="I1" activeCellId="1" sqref="A1:H46 I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="46.6640625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.6640625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="4.83203125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="8"/>
-    <col min="11" max="16384" width="14.5" style="7"/>
+    <col min="1" max="1" width="4.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="3"/>
+    <col min="11" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="34" t="s">
+    <row r="1" spans="1:10" s="26" customFormat="1" ht="15.75" customHeight="1">
+      <c r="C1" s="28"/>
+      <c r="D1" s="22"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="21" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="3" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="26"/>
+    </row>
+    <row r="4" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="26"/>
+    </row>
+    <row r="5" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:10" ht="30.95" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9">
+        <f>MIN(F7:F9)</f>
+        <v>43110</v>
+      </c>
+      <c r="G6" s="9">
+        <f>MAX(G7:G9)</f>
+        <v>43128</v>
+      </c>
+      <c r="H6" s="10">
+        <f>(_xlfn.DAYS(G6,F6))</f>
         <v>18</v>
       </c>
-      <c r="G2" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="33"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="33"/>
-    </row>
-    <row r="5" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="11">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14">
-        <f>MIN(F6:F8)</f>
+      <c r="I6" s="26"/>
+    </row>
+    <row r="7" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="13">
         <v>43110</v>
       </c>
-      <c r="G5" s="14">
-        <f>MAX(G6:G8)</f>
+      <c r="G7" s="13">
+        <v>43116</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" ref="H7:H39" si="0">(_xlfn.DAYS(G7,F7))</f>
+        <v>6</v>
+      </c>
+      <c r="I7" s="26"/>
+    </row>
+    <row r="8" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="13">
+        <v>43117</v>
+      </c>
+      <c r="G8" s="13">
         <v>43128</v>
       </c>
-      <c r="H5" s="15">
-        <f>(_xlfn.DAYS(G5,F5))</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="18">
-        <v>43110</v>
-      </c>
-      <c r="G6" s="18">
-        <v>43116</v>
-      </c>
-      <c r="H6" s="16">
-        <f t="shared" ref="H6:H38" si="0">(_xlfn.DAYS(G6,F6))</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="16">
-        <v>1.2</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="18">
-        <v>43117</v>
-      </c>
-      <c r="G7" s="18">
-        <v>43128</v>
-      </c>
-      <c r="H7" s="16">
+      <c r="H8" s="11">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="16">
+      <c r="I8" s="26"/>
+    </row>
+    <row r="9" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="11">
         <v>1.3</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="18">
+      <c r="C9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="13">
         <v>43110</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G9" s="13">
         <v>43128</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H9" s="11">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="26"/>
+    </row>
+    <row r="10" spans="1:10" ht="9.9499999999999993" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="22">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="26"/>
+    </row>
+    <row r="11" spans="1:10" ht="21" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="17">
         <v>2</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="21">
-        <f>MIN(F11:F14)</f>
+      <c r="C11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="16">
+        <f>MIN(F12:F15)</f>
         <v>43129</v>
       </c>
-      <c r="G10" s="21">
-        <f>MAX(G11:G14)</f>
+      <c r="G11" s="16">
+        <f>MAX(G12:G15)</f>
         <v>43159</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H11" s="19">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="16">
+      <c r="I11" s="26"/>
+    </row>
+    <row r="12" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="11">
         <v>2.1</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="C12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="11">
         <v>1</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="18">
+      <c r="E12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="13">
         <v>43129</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G12" s="13">
         <v>43136</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H12" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="16">
+      <c r="I12" s="26"/>
+    </row>
+    <row r="13" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="16">
+      <c r="C13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="11">
         <v>1</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="18">
+      <c r="E13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="13">
         <v>43137</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G13" s="13">
         <v>43143</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H13" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="16">
+      <c r="I13" s="26"/>
+    </row>
+    <row r="14" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="16">
+      <c r="C14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="11">
         <v>1</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="18">
+      <c r="E14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="13">
         <v>43144</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G14" s="13">
         <v>43150</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H14" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="16">
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="11">
         <v>2.4</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="16">
+      <c r="C15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="11">
         <v>1</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="18">
+      <c r="E15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="13">
         <v>43151</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G15" s="13">
         <v>43159</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H15" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="26"/>
+    </row>
+    <row r="16" spans="1:10" ht="9.9499999999999993" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="19">
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="26"/>
+    </row>
+    <row r="17" spans="1:10" ht="21" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="14">
         <v>3</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="21">
-        <f>MIN(F17:F21)</f>
+      <c r="C17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="16">
+        <f>MIN(F18:F22)</f>
         <v>43160</v>
       </c>
-      <c r="G16" s="21">
-        <f>MAX(G17:G21)</f>
+      <c r="G17" s="16">
+        <f>MAX(G18:G22)</f>
         <v>43197</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H17" s="19">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="16">
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="11">
         <v>3.1</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="16">
+      <c r="C18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="11">
         <v>2</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="18">
+      <c r="E18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="13">
         <v>43160</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G18" s="13">
         <v>43165</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H18" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="16">
+      <c r="I18" s="26"/>
+    </row>
+    <row r="19" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="11">
         <v>3.2</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="16">
+      <c r="C19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="11">
         <v>2</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="18">
+      <c r="E19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="13">
         <v>43166</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G19" s="13">
         <v>43167</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H19" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="16">
+      <c r="I19" s="26"/>
+    </row>
+    <row r="20" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="11">
         <v>3.3</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="16">
+      <c r="C20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="11">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="18">
+      <c r="E20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="13">
         <v>43176</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G20" s="13">
         <v>43177</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H20" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="16">
+      <c r="I20" s="26"/>
+    </row>
+    <row r="21" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="11">
         <v>3.4</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="16">
+      <c r="C21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="11">
         <v>5.2</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="18">
+      <c r="E21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="13">
         <v>43186</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G21" s="13">
         <v>43187</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H21" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="16">
+      <c r="I21" s="26"/>
+    </row>
+    <row r="22" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="11">
         <v>3.5</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="16">
+      <c r="C22" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="11">
         <v>5.3</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="18">
+      <c r="E22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="13">
         <v>43196</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G22" s="13">
         <v>43197</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H22" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="24"/>
-    </row>
-    <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I22" s="26"/>
+    </row>
+    <row r="23" spans="1:10" ht="17.25" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="19">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="26"/>
+    </row>
+    <row r="24" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="14">
         <v>4</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="21">
-        <f>MIN(F24:F27)</f>
+      <c r="C24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="16">
+        <f>MIN(F25:F28)</f>
         <v>43168</v>
       </c>
-      <c r="G23" s="21">
-        <f>MAX(G24:G27)</f>
+      <c r="G24" s="16">
+        <f>MAX(G25:G28)</f>
         <v>43202</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H24" s="19">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="16">
+      <c r="I24" s="26"/>
+    </row>
+    <row r="25" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="16">
+      <c r="C25" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="11">
         <v>3.1</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="18">
+      <c r="E25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="13">
         <v>43168</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G25" s="13">
         <v>43172</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H25" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="16">
+      <c r="I25" s="26"/>
+    </row>
+    <row r="26" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A26" s="1"/>
+      <c r="B26" s="11">
         <v>4.2</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="16">
+      <c r="C26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="11">
         <v>3.2</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="18">
+      <c r="E26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="13">
         <v>43178</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G26" s="13">
         <v>43182</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H26" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="16">
+      <c r="I26" s="26"/>
+    </row>
+    <row r="27" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="11">
         <v>4.3</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="16">
+      <c r="C27" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="11">
         <v>3.3</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="18">
+      <c r="E27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="13">
         <v>43188</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G27" s="13">
         <v>43192</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H27" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="16">
+      <c r="I27" s="26"/>
+    </row>
+    <row r="28" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="16">
+      <c r="C28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="11">
         <v>3.4</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="18">
+      <c r="E28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="13">
         <v>43198</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G28" s="13">
         <v>43202</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H28" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J27" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="24"/>
-    </row>
-    <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I28" s="26"/>
+      <c r="J28" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="9.9499999999999993" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="19">
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="26"/>
+    </row>
+    <row r="30" spans="1:10" ht="21" customHeight="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="14">
         <v>5</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="21">
-        <f>MIN(F30:F33)</f>
+      <c r="C30" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="16">
+        <f>MIN(F31:F34)</f>
         <v>43173</v>
       </c>
-      <c r="G29" s="21">
-        <f>MAX(G30:G33)</f>
+      <c r="G30" s="16">
+        <f>MAX(G31:G34)</f>
         <v>43205</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H30" s="19">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="16">
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A31" s="1"/>
+      <c r="B31" s="11">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C30" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="16">
+      <c r="C31" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="18">
+      <c r="E31" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="13">
         <v>43173</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G31" s="13">
         <v>43175</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H31" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="16">
+      <c r="I31" s="26"/>
+    </row>
+    <row r="32" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A32" s="1"/>
+      <c r="B32" s="11">
         <v>5.2</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="16">
+      <c r="C32" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="11">
         <v>4.2</v>
       </c>
-      <c r="E31" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="18">
+      <c r="E32" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="13">
         <v>43183</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G32" s="13">
         <v>43185</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H32" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="16">
+      <c r="I32" s="26"/>
+    </row>
+    <row r="33" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A33" s="1"/>
+      <c r="B33" s="11">
         <v>5.3</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="16">
+      <c r="C33" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="11">
         <v>4.3</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="18">
+      <c r="E33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="13">
         <v>43193</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G33" s="13">
         <v>43195</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H33" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="16">
+      <c r="I33" s="26"/>
+    </row>
+    <row r="34" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A34" s="1"/>
+      <c r="B34" s="11">
         <v>5.4</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="16">
+      <c r="C34" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="18">
+      <c r="E34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="13">
         <v>43203</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G34" s="13">
         <v>43205</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H34" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="15"/>
-    </row>
-    <row r="35" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I34" s="26"/>
+    </row>
+    <row r="35" spans="1:9" ht="9.9499999999999993" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="19">
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="26"/>
+    </row>
+    <row r="36" spans="1:9" ht="21" customHeight="1">
+      <c r="A36" s="1"/>
+      <c r="B36" s="14">
         <v>6</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="21">
-        <f>MIN(F36:F39)</f>
+      <c r="C36" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="16">
+        <f>MIN(F37:F40)</f>
         <v>43206</v>
       </c>
-      <c r="G35" s="21">
-        <f>MAX(G36:G38)</f>
+      <c r="G36" s="16">
+        <f>MAX(G37:G39)</f>
         <v>43212</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H36" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="16">
+      <c r="I36" s="26"/>
+    </row>
+    <row r="37" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A37" s="1"/>
+      <c r="B37" s="11">
         <v>6.1</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="18">
+      <c r="C37" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="13">
         <v>43206</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G37" s="13">
         <v>43212</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H37" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="16">
+      <c r="I37" s="26"/>
+    </row>
+    <row r="38" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A38" s="1"/>
+      <c r="B38" s="11">
         <v>6.2</v>
       </c>
-      <c r="C37" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="18">
+      <c r="C38" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="13">
         <v>43208</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G38" s="13">
         <v>43212</v>
       </c>
-      <c r="H37" s="16">
+      <c r="H38" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="16">
+      <c r="I38" s="26"/>
+    </row>
+    <row r="39" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="11">
         <v>6.3</v>
       </c>
-      <c r="C38" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="18">
+      <c r="C39" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="13">
         <v>43206</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G39" s="13">
         <v>43212</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H39" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="30">
+      <c r="I39" s="26"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A41" s="26"/>
+      <c r="B41" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="28"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A42" s="26"/>
+      <c r="B42" s="24">
         <v>1</v>
       </c>
-      <c r="C41" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="28">
+      <c r="C42" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="22">
         <v>59070009</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="30">
+      <c r="E42" s="26"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A43" s="26"/>
+      <c r="B43" s="24">
         <v>2</v>
       </c>
-      <c r="C42" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="28">
+      <c r="C43" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="22">
         <v>59070022</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="30">
+      <c r="E43" s="26"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A44" s="26"/>
+      <c r="B44" s="24">
         <v>3</v>
       </c>
-      <c r="C43" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="28">
+      <c r="C44" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="22">
         <v>59070043</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="30">
+      <c r="E44" s="26"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A45" s="26"/>
+      <c r="B45" s="24">
         <v>4</v>
       </c>
-      <c r="C44" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="28">
+      <c r="C45" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="22">
         <v>59070087</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="30">
+      <c r="E45" s="26"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A46" s="26"/>
+      <c r="B46" s="24">
         <v>5</v>
       </c>
-      <c r="C45" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="28">
+      <c r="C46" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="22">
         <v>59070113</v>
       </c>
+      <c r="E46" s="26"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="D2:D4"/>
+  <mergeCells count="8">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2908,15 +2988,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F05C1EF0044CF249A09568BFC7A27DEF" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a308155717e7f8eadebf0d848e17ba4f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="360d23a6-f195-4c5c-b5bb-19aa4319b9ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b1d6afd8dd879a1d7a61ed4bc2f66470" ns2:_="">
     <xsd:import namespace="360d23a6-f195-4c5c-b5bb-19aa4319b9ef"/>
@@ -3068,44 +3139,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84BAB9AF-D7E3-4935-902D-F19D2D3AE227}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="360d23a6-f195-4c5c-b5bb-19aa4319b9ef"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84BAB9AF-D7E3-4935-902D-F19D2D3AE227}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FB229F0-8222-4E0E-98F5-97B5EFBD90CC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2627D2E6-4B24-4613-8E49-3AC75E278B25}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2627D2E6-4B24-4613-8E49-3AC75E278B25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="360d23a6-f195-4c5c-b5bb-19aa4319b9ef"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FB229F0-8222-4E0E-98F5-97B5EFBD90CC}"/>
 </file>